--- a/pipelines/cdi_ca_1924-55_wk_prov_dbs_statcan/digitizations/cdi_poliopar_ca_1949-55_wk_prov.xlsx
+++ b/pipelines/cdi_ca_1924-55_wk_prov_dbs_statcan/digitizations/cdi_poliopar_ca_1949-55_wk_prov.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenwalker/Development/iidda-staging/pipelines/cdi_ca_1924-55_wk_prov_dbs_statcan/digitizations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stevenwalker/Development/iidda/pipelines/cdi_ca_1924-55_wk_prov_dbs_statcan/digitizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66DD21E-DCF5-8748-96BE-EB7A66CE17F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092E14BF-4C39-5246-90F8-4CFCA4BDC8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21600" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1949" sheetId="1" r:id="rId1"/>
@@ -961,24 +961,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>wrong but clear total in this cell is 471</t>
-  </si>
-  <si>
-    <t>wrong but clear total in this cell is 234</t>
-  </si>
-  <si>
-    <t>wrong but clear total in this cell is 30</t>
-  </si>
-  <si>
-    <t>wrong but clear total in this cell is 6</t>
-  </si>
-  <si>
-    <t>wrong but clear total in this cell is  296</t>
-  </si>
-  <si>
-    <t>wrong but clear total in this cell is 8</t>
-  </si>
-  <si>
     <t>1596 (unclear)</t>
   </si>
   <si>
@@ -986,6 +968,24 @@
   </si>
   <si>
     <t>23 (123)</t>
+  </si>
+  <si>
+    <t>Wrong but clear total in this cell is 8</t>
+  </si>
+  <si>
+    <t>Wrong but clear total in this cell is  296</t>
+  </si>
+  <si>
+    <t>Wrong but clear total in this cell is 471</t>
+  </si>
+  <si>
+    <t>Wrong but clear total in this cell is 234</t>
+  </si>
+  <si>
+    <t>Wrong but clear total in this cell is 30</t>
+  </si>
+  <si>
+    <t>Wrong but clear total in this cell is 6</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1369,10 +1369,20 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1381,21 +1391,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1735,9 +1738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" zoomScale="90" workbookViewId="0">
-      <selection activeCell="AA41" sqref="AA41"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1746,7 +1747,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="30"/>
@@ -1777,18 +1778,18 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1808,57 +1809,57 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="35" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="35" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="40" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="38" t="s">
+      <c r="V3" s="32"/>
+      <c r="W3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="36"/>
+      <c r="X3" s="32"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -3218,8 +3219,8 @@
       <c r="W28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="X28" s="13" t="s">
-        <v>310</v>
+      <c r="X28" s="41" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15.75" customHeight="1">
@@ -3728,7 +3729,7 @@
       <c r="W37" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="X37" s="13" t="s">
+      <c r="X37" s="41" t="s">
         <v>309</v>
       </c>
     </row>
@@ -3958,8 +3959,8 @@
       <c r="W41" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="X41" s="13" t="s">
-        <v>305</v>
+      <c r="X41" s="41" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="15.75" customHeight="1">
@@ -4190,8 +4191,8 @@
       <c r="W45" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="X45" s="13" t="s">
-        <v>306</v>
+      <c r="X45" s="41" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="15.75" customHeight="1">
@@ -4580,8 +4581,8 @@
       <c r="W52" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="X52" s="13" t="s">
-        <v>307</v>
+      <c r="X52" s="41" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="15.75" customHeight="1">
@@ -4866,8 +4867,8 @@
       <c r="W57" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="X57" s="13" t="s">
-        <v>308</v>
+      <c r="X57" s="41" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="15.75" customHeight="1">
@@ -5041,7 +5042,7 @@
         <v>108</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="39"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="30"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -6059,11 +6060,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="B3:B4"/>
@@ -6074,6 +6070,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="C5:C30 D5:D31 A5:B59 E5:X59 D53">
     <cfRule type="expression" dxfId="14" priority="1">
@@ -6105,7 +6106,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="30"/>
@@ -6136,18 +6137,18 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
@@ -6169,57 +6170,57 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="35" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="35" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="40" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="38" t="s">
+      <c r="V3" s="32"/>
+      <c r="W3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="36"/>
+      <c r="X3" s="32"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -9376,7 +9377,7 @@
         <v>108</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="39"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="30"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -10395,11 +10396,6 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="B3:B4"/>
@@ -10410,6 +10406,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="C31:D59">
     <cfRule type="expression" dxfId="12" priority="2">
@@ -10441,7 +10442,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="30"/>
@@ -10472,18 +10473,18 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
@@ -10503,57 +10504,57 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="35" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="35" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="40" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="38" t="s">
+      <c r="V3" s="32"/>
+      <c r="W3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="36"/>
+      <c r="X3" s="32"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -13894,7 +13895,7 @@
         <v>108</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="39"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="30"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -14913,11 +14914,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="B3:B4"/>
@@ -14928,6 +14924,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="C31:D59 F39 V39 F44 J48 F52 J52">
     <cfRule type="expression" dxfId="10" priority="2">
@@ -14948,8 +14949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -14959,7 +14960,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="30"/>
@@ -14990,18 +14991,18 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
@@ -15021,57 +15022,57 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="35" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="35" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="40" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="38" t="s">
+      <c r="V3" s="32"/>
+      <c r="W3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="36"/>
+      <c r="X3" s="32"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -18207,7 +18208,7 @@
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="21" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L59" s="20"/>
       <c r="M59" s="21" t="s">
@@ -18229,7 +18230,7 @@
       </c>
       <c r="V59" s="20"/>
       <c r="W59" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="X59" s="20"/>
     </row>
@@ -18298,7 +18299,7 @@
         <v>108</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="39"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="30"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -19317,11 +19318,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="B3:B4"/>
@@ -19332,6 +19328,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="C31:D59 F44 T44 F48 T48 F52 H52 T52 F56 H56 T56">
     <cfRule type="expression" dxfId="8" priority="2">
@@ -19363,7 +19364,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="30"/>
@@ -19394,18 +19395,18 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
@@ -19425,57 +19426,57 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="35" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="35" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="40" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="38" t="s">
+      <c r="V3" s="32"/>
+      <c r="W3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="36"/>
+      <c r="X3" s="32"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -21328,7 +21329,7 @@
         <v>85</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="O36" s="12" t="s">
         <v>225</v>
@@ -22672,7 +22673,7 @@
         <v>108</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="39"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="30"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -23691,11 +23692,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="B3:B4"/>
@@ -23706,6 +23702,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="C31:D59">
     <cfRule type="expression" dxfId="6" priority="2">
@@ -23737,7 +23738,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="30"/>
@@ -23768,18 +23769,18 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
@@ -23799,57 +23800,57 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="35" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="35" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="40" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="38" t="s">
+      <c r="V3" s="32"/>
+      <c r="W3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="36"/>
+      <c r="X3" s="32"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -27088,7 +27089,7 @@
         <v>108</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="E63" s="39"/>
+      <c r="E63" s="29"/>
       <c r="F63" s="30"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -28107,11 +28108,6 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="B3:B4"/>
@@ -28122,6 +28118,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="C31:D59">
     <cfRule type="expression" dxfId="4" priority="2">
@@ -28153,7 +28154,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="30"/>
@@ -28184,18 +28185,18 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
@@ -28215,57 +28216,57 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="35" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="35" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="40" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="38" t="s">
+      <c r="V3" s="32"/>
+      <c r="W3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="36"/>
+      <c r="X3" s="32"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -31484,7 +31485,7 @@
         <v>108</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="39"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="30"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -32503,11 +32504,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="B3:B4"/>
@@ -32518,6 +32514,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="C31:D59">
     <cfRule type="expression" dxfId="2" priority="2">
@@ -32547,7 +32548,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="30"/>
@@ -32578,18 +32579,18 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
@@ -32607,57 +32608,57 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="35" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="35" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="35" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="35" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="36"/>
-      <c r="S3" s="35" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="36"/>
-      <c r="U3" s="40" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="W3" s="38" t="s">
+      <c r="V3" s="32"/>
+      <c r="W3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="36"/>
+      <c r="X3" s="32"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -34330,7 +34331,7 @@
         <v>108</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="E62" s="39"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="30"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -35347,11 +35348,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
     <mergeCell ref="B1:X1"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="B3:B4"/>
@@ -35362,6 +35358,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:X59">
     <cfRule type="expression" dxfId="0" priority="1">
